--- a/biology/Médecine/Jugum_sphénoïdal/Jugum_sphénoïdal.xlsx
+++ b/biology/Médecine/Jugum_sphénoïdal/Jugum_sphénoïdal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jugum_sph%C3%A9no%C3%AFdal</t>
+          <t>Jugum_sphénoïdal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jugum sphénoïdal (ou planum sphénoïdal) est la surface quadrilatère situé sur la partie antérieure de la face supérieure du corps du sphénoïde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jugum_sph%C3%A9no%C3%AFdal</t>
+          <t>Jugum_sphénoïdal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jugum sphénoïdal possède une surface déprimée latéralement par la partie postérieure des gouttières olfactives.
 En avant elle se prolonge par le rostre sphénoïdal surplombant la face antérieure du corps du sphénoïde. 
